--- a/docs/Mappa zone.xlsx
+++ b/docs/Mappa zone.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Domoticata\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2776AA37-E950-4EA1-8902-B25EF09B3C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77AD9513-4A1F-4F7C-B6AA-B7C889E1DD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2471F9E7-F142-4FD4-B46F-4DD068C747A6}"/>
   </bookViews>
@@ -287,13 +287,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -302,7 +301,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -320,23 +319,23 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -674,9 +673,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B717B42-6E59-4F5C-8EDC-9253A32944FF}">
-  <dimension ref="B2:L32"/>
+  <dimension ref="B2:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -692,590 +693,437 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="12">
+      <c r="B3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="15">
         <v>0</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="12">
-        <v>5</v>
-      </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="K3" s="12">
+      <c r="D3" s="16"/>
+      <c r="F3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="15">
+        <v>5</v>
+      </c>
+      <c r="H3" s="16"/>
+      <c r="J3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="15">
         <v>10</v>
       </c>
-      <c r="L3" s="13"/>
+      <c r="L3" s="16"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="14"/>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="11"/>
+      <c r="F4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="11"/>
+      <c r="J4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="11"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K5" s="6"/>
-      <c r="L5" s="15"/>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="12"/>
+      <c r="F5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="11"/>
+      <c r="J5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="5"/>
+      <c r="L5" s="12"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" s="6"/>
-      <c r="L6" s="15"/>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="12"/>
+      <c r="F6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="12"/>
+      <c r="J6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="5"/>
+      <c r="L6" s="12"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="K7" s="7"/>
-      <c r="L7" s="16"/>
+      <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="14"/>
+      <c r="F7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="14"/>
+      <c r="J7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" s="6"/>
+      <c r="L7" s="13"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="12">
-        <v>1</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" s="12">
-        <v>6</v>
-      </c>
-      <c r="H8" s="13"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="K8" s="12">
+      <c r="B8" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="15">
+        <v>1</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="F8" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="15">
+        <v>6</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="J8" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K8" s="15">
         <v>11</v>
       </c>
-      <c r="L8" s="13"/>
+      <c r="L8" s="16"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="14"/>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="11"/>
+      <c r="F9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="11"/>
+      <c r="J9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="2"/>
+      <c r="L9" s="11"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K10" s="3"/>
-      <c r="L10" s="14"/>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="11"/>
+      <c r="F10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="11"/>
+      <c r="J10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" s="2"/>
+      <c r="L10" s="11"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K11" s="3"/>
-      <c r="L11" s="14"/>
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="12"/>
+      <c r="F11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="12"/>
+      <c r="J11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11" s="2"/>
+      <c r="L11" s="11"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="K12" s="5"/>
-      <c r="L12" s="17"/>
+      <c r="B12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="14"/>
+      <c r="F12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="14"/>
+      <c r="J12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K12" s="4"/>
+      <c r="L12" s="14"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="12">
+      <c r="B13" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="15">
         <v>2</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="G13" s="12">
-        <v>7</v>
-      </c>
-      <c r="H13" s="13"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="K13" s="12">
+      <c r="D13" s="16"/>
+      <c r="F13" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="15">
+        <v>7</v>
+      </c>
+      <c r="H13" s="16"/>
+      <c r="J13" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K13" s="15">
         <v>12</v>
       </c>
-      <c r="L13" s="13"/>
+      <c r="L13" s="16"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="14"/>
+      <c r="B14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="11"/>
+      <c r="F14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="11"/>
+      <c r="J14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="2"/>
+      <c r="L14" s="11"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K15" s="6"/>
-      <c r="L15" s="15"/>
+      <c r="B15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="12"/>
+      <c r="F15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="11"/>
+      <c r="J15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K15" s="5"/>
+      <c r="L15" s="12"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K16" s="6"/>
-      <c r="L16" s="15"/>
+      <c r="B16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="12"/>
+      <c r="F16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="12"/>
+      <c r="J16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K16" s="5"/>
+      <c r="L16" s="12"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="K17" s="5"/>
-      <c r="L17" s="17"/>
+      <c r="B17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="13"/>
+      <c r="F17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="14"/>
+      <c r="J17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K17" s="4"/>
+      <c r="L17" s="14"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="12">
+      <c r="B18" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="15">
         <v>3</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="G18" s="12">
+      <c r="D18" s="16"/>
+      <c r="F18" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" s="15">
         <v>8</v>
       </c>
-      <c r="H18" s="13"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
+      <c r="H18" s="16"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="11"/>
+      <c r="F19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="11"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G20" s="6"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="11"/>
+      <c r="F20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="11"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G21" s="6"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="12"/>
+      <c r="F21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="H21" s="12"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B22" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="5"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
+      <c r="B22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="13"/>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="14"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B23" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="12">
-        <v>4</v>
-      </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="G23" s="12">
+      <c r="B23" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="15">
+        <v>4</v>
+      </c>
+      <c r="D23" s="16"/>
+      <c r="F23" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G23" s="15">
         <v>9</v>
       </c>
-      <c r="H23" s="13"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
+      <c r="H23" s="16"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="11"/>
+      <c r="F24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="11"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G25" s="6"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="11"/>
+      <c r="F25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="5"/>
+      <c r="H25" s="12"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="12"/>
+      <c r="F26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="5"/>
+      <c r="H26" s="12"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B27" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G27" s="5"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
+      <c r="B27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="14"/>
+      <c r="F27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" s="4"/>
+      <c r="H27" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C13:D13"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="G3:H3"/>
@@ -1283,6 +1131,12 @@
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="G23:H23"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C13:D13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/Mappa zone.xlsx
+++ b/docs/Mappa zone.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Domoticata\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77AD9513-4A1F-4F7C-B6AA-B7C889E1DD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B2505F-E516-412B-8873-E4944F23967B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2471F9E7-F142-4FD4-B46F-4DD068C747A6}"/>
   </bookViews>
@@ -119,7 +119,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -275,6 +275,90 @@
       </right>
       <top style="thin">
         <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
@@ -287,7 +371,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -335,6 +419,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -676,7 +784,7 @@
   <dimension ref="B2:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="G11" sqref="G11:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -895,8 +1003,8 @@
       <c r="F12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="14"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="13"/>
       <c r="J12" s="3" t="s">
         <v>4</v>
       </c>
@@ -1002,13 +1110,13 @@
         <v>3</v>
       </c>
       <c r="D18" s="16"/>
-      <c r="F18" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="G18" s="15">
+      <c r="F18" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" s="21">
         <v>8</v>
       </c>
-      <c r="H18" s="16"/>
+      <c r="H18" s="22"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
@@ -1019,7 +1127,7 @@
       <c r="F19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G19" s="2"/>
+      <c r="G19" s="23"/>
       <c r="H19" s="11"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
@@ -1031,7 +1139,7 @@
       <c r="F20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G20" s="2"/>
+      <c r="G20" s="23"/>
       <c r="H20" s="11"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
@@ -1043,7 +1151,7 @@
       <c r="F21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G21" s="5"/>
+      <c r="G21" s="24"/>
       <c r="H21" s="12"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
@@ -1055,8 +1163,8 @@
       <c r="F22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G22" s="4"/>
-      <c r="H22" s="14"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="13"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
@@ -1066,13 +1174,13 @@
         <v>4</v>
       </c>
       <c r="D23" s="16"/>
-      <c r="F23" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="G23" s="15">
+      <c r="F23" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="G23" s="18">
         <v>9</v>
       </c>
-      <c r="H23" s="16"/>
+      <c r="H23" s="19"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
@@ -1124,6 +1232,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C13:D13"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="G3:H3"/>
@@ -1131,12 +1245,6 @@
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="G23:H23"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C13:D13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
